--- a/Exported csv/table_H3_tukey.xlsx
+++ b/Exported csv/table_H3_tukey.xlsx
@@ -404,12 +404,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>apr</t>
+          <t>Apr</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>aug</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -431,12 +431,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>apr</t>
+          <t>Apr</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>dec</t>
+          <t>Dec</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -458,12 +458,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>apr</t>
+          <t>Apr</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>feb</t>
+          <t>Feb</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -485,12 +485,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>apr</t>
+          <t>Apr</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -512,12 +512,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>apr</t>
+          <t>Apr</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>jul</t>
+          <t>Jul</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -539,12 +539,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>apr</t>
+          <t>Apr</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>jun</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -566,12 +566,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>apr</t>
+          <t>Apr</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>mar</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -593,12 +593,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>apr</t>
+          <t>Apr</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -620,12 +620,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>apr</t>
+          <t>Apr</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>nov</t>
+          <t>Nov</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -647,12 +647,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>apr</t>
+          <t>Apr</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>oct</t>
+          <t>Oct</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -674,12 +674,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>apr</t>
+          <t>Apr</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>sep</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -701,12 +701,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>aug</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>dec</t>
+          <t>Dec</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -728,12 +728,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>aug</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>feb</t>
+          <t>Feb</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -755,12 +755,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>aug</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -782,12 +782,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>aug</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>jul</t>
+          <t>Jul</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -809,12 +809,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>aug</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>jun</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -836,12 +836,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>aug</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>mar</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -863,12 +863,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>aug</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -890,12 +890,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>aug</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>nov</t>
+          <t>Nov</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -917,12 +917,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>aug</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>oct</t>
+          <t>Oct</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -944,12 +944,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>aug</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>sep</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -971,12 +971,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>dec</t>
+          <t>Dec</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>feb</t>
+          <t>Feb</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -998,12 +998,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>dec</t>
+          <t>Dec</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1025,12 +1025,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>dec</t>
+          <t>Dec</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>jul</t>
+          <t>Jul</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1052,12 +1052,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>dec</t>
+          <t>Dec</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>jun</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1079,12 +1079,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>dec</t>
+          <t>Dec</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>mar</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>dec</t>
+          <t>Dec</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1133,12 +1133,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>dec</t>
+          <t>Dec</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>nov</t>
+          <t>Nov</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1160,12 +1160,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>dec</t>
+          <t>Dec</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>oct</t>
+          <t>Oct</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1187,12 +1187,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>dec</t>
+          <t>Dec</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>sep</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1214,12 +1214,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>feb</t>
+          <t>Feb</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1241,12 +1241,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>feb</t>
+          <t>Feb</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>jul</t>
+          <t>Jul</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1268,12 +1268,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>feb</t>
+          <t>Feb</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>jun</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1295,12 +1295,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>feb</t>
+          <t>Feb</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>mar</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>feb</t>
+          <t>Feb</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1349,12 +1349,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>feb</t>
+          <t>Feb</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>nov</t>
+          <t>Nov</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>feb</t>
+          <t>Feb</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>oct</t>
+          <t>Oct</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1403,12 +1403,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>feb</t>
+          <t>Feb</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>sep</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>jul</t>
+          <t>Jul</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1457,12 +1457,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>jun</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1484,12 +1484,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>mar</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1511,12 +1511,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1538,12 +1538,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>nov</t>
+          <t>Nov</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>oct</t>
+          <t>Oct</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1592,12 +1592,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>sep</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1619,12 +1619,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>jul</t>
+          <t>Jul</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>jun</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1646,12 +1646,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>jul</t>
+          <t>Jul</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>mar</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>jul</t>
+          <t>Jul</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1700,12 +1700,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>jul</t>
+          <t>Jul</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>nov</t>
+          <t>Nov</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1727,12 +1727,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>jul</t>
+          <t>Jul</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>oct</t>
+          <t>Oct</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1754,12 +1754,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>jul</t>
+          <t>Jul</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>sep</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1781,12 +1781,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>jun</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>mar</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1808,12 +1808,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>jun</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>jun</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>nov</t>
+          <t>Nov</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1862,12 +1862,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>jun</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>oct</t>
+          <t>Oct</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1889,12 +1889,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>jun</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>sep</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>mar</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>mar</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>nov</t>
+          <t>Nov</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1970,12 +1970,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>mar</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>oct</t>
+          <t>Oct</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1997,12 +1997,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>mar</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>sep</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -2024,12 +2024,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>nov</t>
+          <t>Nov</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -2051,12 +2051,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>oct</t>
+          <t>Oct</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -2078,12 +2078,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>sep</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -2105,12 +2105,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>nov</t>
+          <t>Nov</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>oct</t>
+          <t>Oct</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -2132,12 +2132,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>nov</t>
+          <t>Nov</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>sep</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>oct</t>
+          <t>Oct</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>sep</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="D67" t="n">
